--- a/DocumentationSheet.xlsx
+++ b/DocumentationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Witch-Survivor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10D4DC81-5582-41AF-A9A9-A1EAF55C6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8052D18-B113-40DE-8E85-5DAB71684BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{066B9E05-3FF1-4B79-AF81-F2364A83FE64}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Witch Survivor</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>potionBottle</t>
+  </si>
+  <si>
+    <t>magicProjectile</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B46D2B-44B9-4EED-A5EB-6C2EF11D11C9}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,6 +659,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/DocumentationSheet.xlsx
+++ b/DocumentationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Witch-Survivor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\Witch-Survivor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8052D18-B113-40DE-8E85-5DAB71684BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BCE4AC-2493-49B8-AC83-93CE4621D7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{066B9E05-3FF1-4B79-AF81-F2364A83FE64}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="27878" windowHeight="15336" xr2:uid="{066B9E05-3FF1-4B79-AF81-F2364A83FE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Witch Survivor</t>
   </si>
@@ -100,9 +99,6 @@
     <t>enemy3Back</t>
   </si>
   <si>
-    <t>Tile</t>
-  </si>
-  <si>
     <t>16x16</t>
   </si>
   <si>
@@ -119,6 +115,54 @@
   </si>
   <si>
     <t>magicProjectile</t>
+  </si>
+  <si>
+    <t>stone floor</t>
+  </si>
+  <si>
+    <t>mossy floor 1</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>mossy floor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to do </t>
+  </si>
+  <si>
+    <t>wizard idle</t>
+  </si>
+  <si>
+    <t>wizard right side</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>wizard left side</t>
+  </si>
+  <si>
+    <t>button idle</t>
+  </si>
+  <si>
+    <t>button pressed</t>
+  </si>
+  <si>
+    <t>button hover</t>
+  </si>
+  <si>
+    <t>hp bar</t>
+  </si>
+  <si>
+    <t>mp bar</t>
+  </si>
+  <si>
+    <t>wizard run</t>
+  </si>
+  <si>
+    <t>wizard back</t>
   </si>
 </sst>
 </file>
@@ -473,18 +517,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B46D2B-44B9-4EED-A5EB-6C2EF11D11C9}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +539,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -529,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -537,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -545,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -553,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -561,107 +606,260 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
